--- a/Software Specification/Architecture/GDD/Review.xlsx
+++ b/Software Specification/Architecture/GDD/Review.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="GDD review" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Review point</t>
   </si>
@@ -72,12 +72,21 @@
 Signal_Operator -&gt;  what do you mean about {A…D, *,#} ?
 Output from Do Math Control shall be a msg/operation result value so for msg it has no range and for result it has a range </t>
   </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Do Math Control is responsible of generating the string that contains the operands, operation and result. Display Control can only accept string signals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,9 +506,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,6 +541,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -706,25 +717,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.88671875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -747,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60">
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -760,13 +771,15 @@
       <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -779,13 +792,15 @@
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" ht="90">
+    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -798,13 +813,15 @@
       <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -817,13 +834,17 @@
       <c r="D5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="120">
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -836,13 +857,15 @@
       <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -855,37 +878,39 @@
       <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>

--- a/Software Specification/Architecture/GDD/Review.xlsx
+++ b/Software Specification/Architecture/GDD/Review.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="GDD review" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>Review point</t>
   </si>
@@ -81,12 +81,38 @@
   <si>
     <t>Do Math Control is responsible of generating the string that contains the operands, operation and result. Display Control can only accept string signals</t>
   </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_GDD_001_V01:
+Ths requirement shall cover the pin description requirement from SRS which isn't defined in SRS.
+SO please put a requirement in HIS section "Pins Configuration" and cover it in the SRS then cover it in the GDD in function (5.1.1.1 GPIO Initiate )</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_GDD_002_V01
+Req_PO1_DGC_GDD_003_V01
+Req_PO1_DGC_GDD_004_V01:
+this function will be called by the HAL layer and if the HAL layer knows what are the used PORTs, when you change the controller you will have to change the HAL also which isn't desired sothat this function shall not take the port input to it it shall take just the pin number and you should extract the port from it</t>
+  </si>
+  <si>
+    <t>Please add a range or each input/return argument for all functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coverage is missing,if there are requirements don't cover any SRS 
+requirements please be sure that they really don't cover any
+requirement </t>
+  </si>
+  <si>
+    <t>It's KEYPAD not KEYPDAD xD 
+GDD_009 &amp; GDD_010</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,9 +152,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -155,11 +178,444 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -474,7 +930,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,10 +962,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,7 +996,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,325 +1171,482 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.88671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="60">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="90">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G5" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="6" spans="1:7" ht="120">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C6" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="90">
+      <c r="A8" s="4">
+        <v>43954</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G8" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="9" spans="1:7" ht="135">
+      <c r="A9" s="4">
+        <v>43954</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="C9" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G9" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="4">
+        <v>43954</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="C10" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="11" spans="1:7" ht="60">
+      <c r="A11" s="4">
+        <v>43954</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="C11" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
+        <v>43954</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="C12" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2">
-    <cfRule type="containsText" dxfId="29" priority="73" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="79" priority="98" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="74" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="78" priority="99" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="75" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="77" priority="100" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="26" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="75" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="74" priority="48" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="73" priority="49" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="72" priority="50" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="46" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="47" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="69" priority="43" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="68" priority="44" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="67" priority="45" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="41" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="42" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="64" priority="38" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="63" priority="39" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="62" priority="40" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="36" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="37" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="59" priority="33" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="58" priority="34" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="57" priority="35" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="31" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="32" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="54" priority="28" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="53" priority="29" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="52" priority="30" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="27" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="49" priority="23" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",F8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="24" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",F8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="25" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",F8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
+      <formula>"Rejected"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
+      <formula>"Accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",F9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",F9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="20" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",F9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
+      <formula>"Rejected"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+      <formula>"Accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",F10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",F10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",F10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+      <formula>"Rejected"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+      <formula>"Accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",F11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",F11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",F11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+      <formula>"Rejected"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+      <formula>"Accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",F12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Closed">
+      <formula>NOT(ISERROR(SEARCH("Closed",F12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",F12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Rejected"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12">
       <formula1>"Open, Closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12">
       <formula1>"Accepted, Rejected"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Software Specification/Architecture/GDD/Review.xlsx
+++ b/Software Specification/Architecture/GDD/Review.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>Review point</t>
   </si>
@@ -185,26 +185,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <font>
         <condense val="0"/>
@@ -252,6 +233,25 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -295,25 +295,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -338,6 +319,25 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -375,221 +375,6 @@
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -1174,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1372,9 +1157,11 @@
       <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G9" s="9"/>
     </row>
@@ -1427,218 +1214,220 @@
       <c r="D12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2">
-    <cfRule type="containsText" dxfId="79" priority="98" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="54" priority="98" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="99" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="53" priority="99" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="100" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="52" priority="100" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="76" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="75" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="76" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="74" priority="48" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="49" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="50" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="47" priority="50" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="71" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="69" priority="43" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="44" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="45" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="66" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="64" priority="38" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="39" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="40" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="61" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="59" priority="33" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="34" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="35" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="56" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="54" priority="28" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="29" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="30" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="49" priority="23" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="24" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="25" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="20" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Software Specification/Architecture/GDD/Review.xlsx
+++ b/Software Specification/Architecture/GDD/Review.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="GDD review" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>Review point</t>
   </si>
@@ -111,8 +111,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,7 +715,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,9 +747,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -781,6 +782,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -956,25 +958,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -997,7 +999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60">
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1020,7 @@
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1039,7 +1041,7 @@
       </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="90">
+    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +1062,7 @@
       </c>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="120">
+    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1106,7 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1125,7 +1127,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="90">
+    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43954</v>
       </c>
@@ -1138,13 +1140,15 @@
       <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="135">
+    <row r="9" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43954</v>
       </c>
@@ -1165,7 +1169,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43954</v>
       </c>
@@ -1178,12 +1182,14 @@
       <c r="D10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60">
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43954</v>
       </c>
@@ -1196,12 +1202,14 @@
       <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43954</v>
       </c>

--- a/Software Specification/Architecture/GDD/Review.xlsx
+++ b/Software Specification/Architecture/GDD/Review.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="GDD review" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Review point</t>
   </si>
@@ -107,12 +107,18 @@
     <t>It's KEYPAD not KEYPDAD xD 
 GDD_009 &amp; GDD_010</t>
   </si>
+  <si>
+    <t>Mali 18/3/2020: Point still open</t>
+  </si>
+  <si>
+    <t>Mali 18/3/2020: Point still open cause of point 8 is open</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,7 +721,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,10 +753,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -782,7 +787,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -958,25 +962,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="83" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -999,7 +1003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="60">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +1024,7 @@
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1041,7 +1045,7 @@
       </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="90">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1062,7 +1066,7 @@
       </c>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="120">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1106,7 +1110,7 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1131,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="90">
       <c r="A8" s="4">
         <v>43954</v>
       </c>
@@ -1146,9 +1150,11 @@
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="135">
       <c r="A9" s="4">
         <v>43954</v>
       </c>
@@ -1169,7 +1175,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="4">
         <v>43954</v>
       </c>
@@ -1186,10 +1192,10 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="60">
       <c r="A11" s="4">
         <v>43954</v>
       </c>
@@ -1208,8 +1214,11 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G11" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>43954</v>
       </c>

--- a/Software Specification/Architecture/GDD/Review.xlsx
+++ b/Software Specification/Architecture/GDD/Review.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Review point</t>
   </si>
@@ -106,6 +106,13 @@
   <si>
     <t>It's KEYPAD not KEYPDAD xD 
 GDD_009 &amp; GDD_010</t>
+  </si>
+  <si>
+    <t>Mali 18/3/2020: Point still open cause of point 8 is open</t>
+  </si>
+  <si>
+    <t>Mali 18/3/2020: Point still open
+Alzahraa 20/3/2020: requirement is covered in Req_PO1_DGC_GDD_002_V01 (GPIO set pin mode function)</t>
   </si>
 </sst>
 </file>
@@ -961,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="83" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,7 +1153,9 @@
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -1186,7 +1195,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -1207,6 +1216,9 @@
       </c>
       <c r="F11" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
